--- a/TableauDeBord (1).xlsx
+++ b/TableauDeBord (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHP\htdocs\projet_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190E409-D54E-4530-A195-DD9F6B8F10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADF640C-373C-426E-8018-F2A16D817BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E0E1A51-2047-064F-AEA0-5A06536136CD}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="G1">
         <f>COUNTIF(E1:E31,"FINI")</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -637,14 +637,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="11">
         <f>COUNTIF(E1:E31,F2)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -663,14 +663,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="11">
         <f>COUNTIF(E1:E31,F3)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -692,7 +692,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7">
         <f>COUNTIF(E8:E18,"En Cours")</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>40</v>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -952,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -978,7 +978,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
